--- a/biology/Histoire de la zoologie et de la botanique/Johan_Erik_Forsström/Johan_Erik_Forsström.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Johan_Erik_Forsström/Johan_Erik_Forsström.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Johan_Erik_Forsstr%C3%B6m</t>
+          <t>Johan_Erik_Forsström</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johan Erik Forsström, né en 1775 à Transtrand et décédé en 1824 à Munktorp, était un pasteur et naturaliste suédois de la province de Dalécarlie. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Johan_Erik_Forsstr%C3%B6m</t>
+          <t>Johan_Erik_Forsström</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a étudié à l'Université d'Uppsala, où l'un de ses instructeurs était le naturaliste Carl Peter Thunberg (1743-1828). En 1800, il accompagne Göran Wahlenberg (1780-1851) dans une expédition à travers la Fennoscandie, où il effectue des recherches entomologiques et botaniques. Pendant le voyage, il a tenu un journal, et en 1917, les détails de l'expédition ont été publiés dans un livre intitulé I Norrlandsstäder och Lapplandsbygd År 1800. John Erik Forsströms dagbok öfver resan i Norrland och Finnmarken 1800 och i Roslagen 1801.
-De 1802 à 1815, Forsström est affecté comme pasteur à Saint-Barthélemy des îles Sous-le-Vent[1], où il travaille également à la collecte de spécimens botaniques. Il retourne ensuite en Suède, où il meurt en 1824 à Munktorp, situé près de la ville de Köping.
+De 1802 à 1815, Forsström est affecté comme pasteur à Saint-Barthélemy des îles Sous-le-Vent, où il travaille également à la collecte de spécimens botaniques. Il retourne ensuite en Suède, où il meurt en 1824 à Munktorp, situé près de la ville de Köping.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Johan_Erik_Forsstr%C3%B6m</t>
+          <t>Johan_Erik_Forsström</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Botanique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'abréviation standard d'auteur Forsstr. est utilisée pour indiquer cette personne comme auteur lors de la citation d'un nom botanique[2].
-Le genre de plante Forsstroemia de la famille des Leptodontaceae porte son nom[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'abréviation standard d'auteur Forsstr. est utilisée pour indiquer cette personne comme auteur lors de la citation d'un nom botanique.
+Le genre de plante Forsstroemia de la famille des Leptodontaceae porte son nom.
 </t>
         </is>
       </c>
